--- a/Take Home/Tables/1_MSPE All Criteria_a110.5_T100.xlsx
+++ b/Take Home/Tables/1_MSPE All Criteria_a110.5_T100.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.1705</v>
+        <v>2.1026</v>
       </c>
       <c r="C2" t="n">
-        <v>2.134</v>
+        <v>2.0857</v>
       </c>
       <c r="D2" t="n">
-        <v>2.208</v>
+        <v>2.0648</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.1702</v>
+        <v>2.101</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1318</v>
+        <v>2.0859</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2084</v>
+        <v>2.0631</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.157</v>
+        <v>2.0779</v>
       </c>
       <c r="C4" t="n">
-        <v>2.1229</v>
+        <v>2.0626</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2175</v>
+        <v>2.0514</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.1613</v>
+        <v>2.0832</v>
       </c>
       <c r="C5" t="n">
-        <v>2.1288</v>
+        <v>2.0672</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2191</v>
+        <v>2.0509</v>
       </c>
     </row>
   </sheetData>
